--- a/Depositos Central.xlsx
+++ b/Depositos Central.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ELJAIDROSO\Documents\GitHub\Cortes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EF9E7F5E-A65D-48C1-9648-7DD821A12C6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAA7536A-3F8C-4FFC-8F01-E27137CD6EE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{279AB1D8-6782-4269-A7D5-ED069A05768E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="13">
   <si>
     <t>Corte</t>
   </si>
@@ -64,9 +64,6 @@
   </si>
   <si>
     <t>Karina</t>
-  </si>
-  <si>
-    <t>Pendiente checar el dia 31</t>
   </si>
 </sst>
 </file>
@@ -75,9 +72,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -95,13 +92,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="24"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -170,17 +160,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -188,16 +175,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -515,10 +502,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89709E19-31F0-40CB-B3AC-1CBE0EF57674}">
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -529,123 +516,123 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
+      <c r="A4" s="4">
         <v>44440</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="8">
         <v>44403</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="5">
         <v>81</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="10" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
+      <c r="A5" s="4">
         <v>44440</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="8">
         <v>44404</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="5">
         <v>92</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="10" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
+      <c r="A6" s="4">
         <v>44440</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="8">
         <v>44406</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="5">
         <v>17424</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="F6" s="11" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
+      <c r="A7" s="4">
         <v>44440</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7" s="8">
         <v>44407</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="5">
         <v>116149</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="F7" s="11" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
+      <c r="A8" s="4">
         <v>44440</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B8" s="9">
         <v>44407</v>
       </c>
       <c r="C8" s="3" t="s">
@@ -657,7 +644,7 @@
       <c r="E8" s="2">
         <v>66232</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="F8" s="11" t="s">
         <v>11</v>
       </c>
     </row>
@@ -665,7 +652,7 @@
       <c r="A9" s="1">
         <v>44440</v>
       </c>
-      <c r="B9" s="10">
+      <c r="B9" s="9">
         <v>44407</v>
       </c>
       <c r="C9" s="3" t="s">
@@ -677,158 +664,137 @@
       <c r="E9" s="2">
         <v>45000</v>
       </c>
-      <c r="F9" s="13" t="s">
+      <c r="F9" s="12" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
+      <c r="A10" s="4">
+        <v>44440</v>
+      </c>
+      <c r="B10" s="9">
+        <v>44408</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="2">
+        <v>27000</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="14"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
+      <c r="A11" s="1">
+        <v>44440</v>
+      </c>
+      <c r="B11" s="9">
+        <v>44408</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="2">
+        <v>57225</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
-      <c r="B12" s="10"/>
+      <c r="B12" s="9"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
-      <c r="B13" s="10"/>
+      <c r="B13" s="9"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="2"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
-      <c r="B14" s="10"/>
+      <c r="B14" s="9"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="2"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
-      <c r="B15" s="10"/>
+      <c r="B15" s="9"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="2"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
-      <c r="B16" s="10"/>
+      <c r="B16" s="9"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="2"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
-      <c r="B17" s="10"/>
+      <c r="B17" s="9"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="2"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
-      <c r="B18" s="10"/>
+      <c r="B18" s="9"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="2"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
-      <c r="B19" s="10"/>
+      <c r="B19" s="9"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="2"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
-      <c r="B20" s="10"/>
+      <c r="B20" s="9"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="2"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
-      <c r="B21" s="10"/>
+      <c r="B21" s="9"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="2"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
-      <c r="B22" s="10"/>
+      <c r="B22" s="9"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="2"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
-      <c r="B23" s="10"/>
+      <c r="B23" s="9"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="2"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="2"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="2"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="2"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="2"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
-      <c r="B29" s="10"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="2"/>
-    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="1">
     <mergeCell ref="A1:E2"/>
-    <mergeCell ref="A10:F11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" verticalDpi="0" r:id="rId1"/>

--- a/Depositos Central.xlsx
+++ b/Depositos Central.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ELJAIDROSO\Documents\GitHub\Cortes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAA7536A-3F8C-4FFC-8F01-E27137CD6EE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12447CC6-F018-40B0-9F69-0B0C812D7266}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{279AB1D8-6782-4269-A7D5-ED069A05768E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
   <si>
     <t>Corte</t>
   </si>
@@ -54,16 +54,7 @@
     <t>Erika</t>
   </si>
   <si>
-    <t>Maria L.</t>
-  </si>
-  <si>
     <t>Faltante</t>
-  </si>
-  <si>
-    <t>Pendiente</t>
-  </si>
-  <si>
-    <t>Karina</t>
   </si>
 </sst>
 </file>
@@ -106,7 +97,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -122,12 +113,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -160,7 +145,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -182,8 +167,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -502,34 +485,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89709E19-31F0-40CB-B3AC-1CBE0EF57674}">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="27.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
@@ -565,7 +548,7 @@
         <v>81</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -585,128 +568,63 @@
         <v>92</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
-        <v>44440</v>
-      </c>
-      <c r="B6" s="8">
-        <v>44406</v>
-      </c>
-      <c r="C6" s="6" t="s">
+      <c r="A6" s="1">
+        <v>44416</v>
+      </c>
+      <c r="B6" s="9">
+        <v>44452</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="2">
+        <v>112256</v>
+      </c>
+      <c r="F6" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="5">
-        <v>17424</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
-        <v>44440</v>
-      </c>
-      <c r="B7" s="8">
-        <v>44407</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E7" s="5">
-        <v>116149</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>11</v>
-      </c>
+      <c r="A7" s="1"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
-        <v>44440</v>
-      </c>
-      <c r="B8" s="9">
-        <v>44407</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="2">
-        <v>66232</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>11</v>
-      </c>
+      <c r="A8" s="1"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>44440</v>
-      </c>
-      <c r="B9" s="9">
-        <v>44407</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="2">
-        <v>45000</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>11</v>
-      </c>
+      <c r="A9" s="1"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="2"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
-        <v>44440</v>
-      </c>
-      <c r="B10" s="9">
-        <v>44408</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E10" s="2">
-        <v>27000</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>11</v>
-      </c>
+      <c r="A10" s="1"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="2"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>44440</v>
-      </c>
-      <c r="B11" s="9">
-        <v>44408</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="2">
-        <v>57225</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>11</v>
-      </c>
+      <c r="A11" s="1"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="2"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
@@ -749,48 +667,6 @@
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="2"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="2"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="2"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="2"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="2"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="2"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Depositos Central.xlsx
+++ b/Depositos Central.xlsx
@@ -1,31 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ELJAIDROSO\Documents\GitHub\Cortes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12447CC6-F018-40B0-9F69-0B0C812D7266}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23135E32-5D24-439D-A784-3D333B050F53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{279AB1D8-6782-4269-A7D5-ED069A05768E}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="22">
   <si>
     <t>Corte</t>
   </si>
@@ -55,6 +63,42 @@
   </si>
   <si>
     <t>Faltante</t>
+  </si>
+  <si>
+    <t>Karina</t>
+  </si>
+  <si>
+    <t>Lugares</t>
+  </si>
+  <si>
+    <t>Personas</t>
+  </si>
+  <si>
+    <t>Obrador</t>
+  </si>
+  <si>
+    <t>Herradura</t>
+  </si>
+  <si>
+    <t>11 sur</t>
+  </si>
+  <si>
+    <t>Jessica</t>
+  </si>
+  <si>
+    <t>Lety</t>
+  </si>
+  <si>
+    <t>Beatriz</t>
+  </si>
+  <si>
+    <t>Daniela</t>
+  </si>
+  <si>
+    <t>Maria Luisa</t>
+  </si>
+  <si>
+    <t>Pendiente</t>
   </si>
 </sst>
 </file>
@@ -112,12 +156,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -140,12 +184,73 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -153,23 +258,40 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -485,194 +607,371 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89709E19-31F0-40CB-B3AC-1CBE0EF57674}">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E14" sqref="B5:E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="33.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="11" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
-        <v>44440</v>
-      </c>
-      <c r="B4" s="8">
-        <v>44403</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="5">
-        <v>81</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>9</v>
-      </c>
+      <c r="A4" s="17"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="13"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
-        <v>44440</v>
-      </c>
-      <c r="B5" s="8">
-        <v>44404</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="6" t="s">
+        <v>44474</v>
+      </c>
+      <c r="B5" s="6">
+        <v>44453</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="5">
-        <v>92</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>9</v>
-      </c>
+      <c r="E5" s="9">
+        <v>119195.6</v>
+      </c>
+      <c r="F5" s="14"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>44416</v>
-      </c>
-      <c r="B6" s="9">
-        <v>44452</v>
+        <v>44474</v>
+      </c>
+      <c r="B6" s="7">
+        <v>44453</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E6" s="2">
-        <v>112256</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>9</v>
+        <v>57542</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="2"/>
+      <c r="A7" s="4">
+        <v>44474</v>
+      </c>
+      <c r="B7" s="6">
+        <v>44454</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="9">
+        <v>52698</v>
+      </c>
+      <c r="F7" s="14"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="2"/>
+      <c r="A8" s="1">
+        <v>44474</v>
+      </c>
+      <c r="B8" s="7">
+        <v>44455</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="18">
+        <v>3295</v>
+      </c>
+      <c r="F8" s="15"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="2"/>
+      <c r="A9" s="1">
+        <v>44474</v>
+      </c>
+      <c r="B9" s="7">
+        <v>44455</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="2">
+        <v>57266</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="2"/>
+      <c r="A10" s="1">
+        <v>44474</v>
+      </c>
+      <c r="B10" s="7">
+        <v>44457</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="2">
+        <v>62200</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="2"/>
+      <c r="A11" s="1">
+        <v>44474</v>
+      </c>
+      <c r="B11" s="7">
+        <v>44457</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="2">
+        <v>1000</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="2"/>
+      <c r="A12" s="1">
+        <v>44474</v>
+      </c>
+      <c r="B12" s="7">
+        <v>44457</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="2">
+        <v>204</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="2"/>
+      <c r="A13" s="1">
+        <v>44474</v>
+      </c>
+      <c r="B13" s="7">
+        <v>44457</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="2">
+        <v>2400</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="2"/>
+      <c r="A14" s="1">
+        <v>44474</v>
+      </c>
+      <c r="B14" s="7">
+        <v>44458</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="2">
+        <v>48000</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="9"/>
+      <c r="B15" s="7"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="2"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="9"/>
+      <c r="B16" s="7"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="9"/>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" s="7"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="2"/>
     </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18" s="7"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="2"/>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="6">
     <mergeCell ref="A1:E2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="landscape" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C94A8520-5EDD-407D-89D6-DB8CDFAC88A5}">
+          <x14:formula1>
+            <xm:f>Hoja2!$E$2:$E$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>F5 F7:F101</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{326FB17C-4471-4A51-978C-447908CB6C17}">
+          <x14:formula1>
+            <xm:f>Hoja2!$A$2:$A$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>C5:C101</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{CF3B5125-4EE4-4C81-BD02-CC2B34D9319E}">
+          <x14:formula1>
+            <xm:f>Hoja2!$C$2:$C$9</xm:f>
+          </x14:formula1>
+          <xm:sqref>D5:D101</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB50B8B0-503D-487A-A3BA-054B1A3407B1}">
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Depositos Central.xlsx
+++ b/Depositos Central.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ELJAIDROSO\Documents\GitHub\Cortes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23135E32-5D24-439D-A784-3D333B050F53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A559F875-F6E1-4E3B-8EA9-DA3BEFE28067}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{279AB1D8-6782-4269-A7D5-ED069A05768E}"/>
   </bookViews>
@@ -267,31 +267,31 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -610,7 +610,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E14" sqref="B5:E14"/>
+      <selection activeCell="E3" sqref="E3:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -621,44 +621,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="17" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="17"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="13"/>
+      <c r="A4" s="14"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="18"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
@@ -673,10 +673,10 @@
       <c r="D5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="8">
         <v>119195.6</v>
       </c>
-      <c r="F5" s="14"/>
+      <c r="F5" s="9"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
@@ -708,10 +708,10 @@
       <c r="D7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="8">
         <v>52698</v>
       </c>
-      <c r="F7" s="14"/>
+      <c r="F7" s="9"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
@@ -726,10 +726,10 @@
       <c r="D8" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="18">
+      <c r="E8" s="11">
         <v>3295</v>
       </c>
-      <c r="F8" s="15"/>
+      <c r="F8" s="10"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1">

--- a/Depositos Central.xlsx
+++ b/Depositos Central.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ELJAIDROSO\Documents\GitHub\Cortes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A559F875-F6E1-4E3B-8EA9-DA3BEFE28067}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2BA4D4B-245A-4F2F-959C-63F02DD94391}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{279AB1D8-6782-4269-A7D5-ED069A05768E}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
   <si>
     <t>Corte</t>
   </si>
@@ -141,7 +141,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -154,14 +154,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="7">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -188,19 +182,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -250,34 +231,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -287,9 +260,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -607,83 +577,82 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89709E19-31F0-40CB-B3AC-1CBE0EF57674}">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:E4"/>
+      <selection activeCell="B8" sqref="B8:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="32.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="10" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="14"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="18"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="11"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>44474</v>
       </c>
-      <c r="B5" s="6">
-        <v>44453</v>
-      </c>
-      <c r="C5" s="5" t="s">
+      <c r="B5" s="4">
+        <v>44457</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="8">
-        <v>119195.6</v>
-      </c>
-      <c r="F5" s="9"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="2">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>44474</v>
       </c>
-      <c r="B6" s="7">
-        <v>44453</v>
+      <c r="B6" s="4">
+        <v>44458</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>3</v>
@@ -692,170 +661,54 @@
         <v>10</v>
       </c>
       <c r="E6" s="2">
-        <v>57542</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
-        <v>44474</v>
-      </c>
-      <c r="B7" s="6">
-        <v>44454</v>
-      </c>
-      <c r="C7" s="5" t="s">
+        <v>48000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>44503</v>
+      </c>
+      <c r="B7" s="4">
+        <v>44460</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="8">
-        <v>52698</v>
-      </c>
-      <c r="F7" s="9"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="2">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>44474</v>
-      </c>
-      <c r="B8" s="7">
-        <v>44455</v>
-      </c>
-      <c r="C8" s="5" t="s">
+        <v>44503</v>
+      </c>
+      <c r="B8" s="4">
+        <v>44467</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="11">
-        <v>3295</v>
-      </c>
-      <c r="F8" s="10"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>44474</v>
-      </c>
-      <c r="B9" s="7">
-        <v>44455</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="2">
-        <v>57266</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>44474</v>
-      </c>
-      <c r="B10" s="7">
-        <v>44457</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="2">
-        <v>62200</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>44474</v>
-      </c>
-      <c r="B11" s="7">
-        <v>44457</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="2">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>44474</v>
-      </c>
-      <c r="B12" s="7">
-        <v>44457</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="2">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>44474</v>
-      </c>
-      <c r="B13" s="7">
-        <v>44457</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="2">
-        <v>2400</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>44474</v>
-      </c>
-      <c r="B14" s="7">
-        <v>44458</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" s="2">
-        <v>48000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B15" s="7"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="2"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="7"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="7"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="2"/>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="7"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="2"/>
+      <c r="D8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="2">
+        <v>120194</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B9" s="4"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B10" s="4"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -875,19 +728,19 @@
           <x14:formula1>
             <xm:f>Hoja2!$E$2:$E$3</xm:f>
           </x14:formula1>
-          <xm:sqref>F5 F7:F101</xm:sqref>
+          <xm:sqref>F5:F93</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{326FB17C-4471-4A51-978C-447908CB6C17}">
           <x14:formula1>
             <xm:f>Hoja2!$A$2:$A$5</xm:f>
           </x14:formula1>
-          <xm:sqref>C5:C101</xm:sqref>
+          <xm:sqref>C5:C93</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{CF3B5125-4EE4-4C81-BD02-CC2B34D9319E}">
           <x14:formula1>
             <xm:f>Hoja2!$C$2:$C$9</xm:f>
           </x14:formula1>
-          <xm:sqref>D5:D101</xm:sqref>
+          <xm:sqref>D5:D93</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/Depositos Central.xlsx
+++ b/Depositos Central.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ELJAIDROSO\Documents\GitHub\Cortes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2BA4D4B-245A-4F2F-959C-63F02DD94391}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BB06C26-599D-4677-98D9-9726974845F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{279AB1D8-6782-4269-A7D5-ED069A05768E}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="22">
   <si>
     <t>Corte</t>
   </si>
@@ -577,10 +577,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89709E19-31F0-40CB-B3AC-1CBE0EF57674}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:E8"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -635,7 +635,7 @@
         <v>44474</v>
       </c>
       <c r="B5" s="4">
-        <v>44457</v>
+        <v>44458</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>3</v>
@@ -644,49 +644,49 @@
         <v>10</v>
       </c>
       <c r="E5" s="2">
-        <v>204</v>
+        <v>48000</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>44474</v>
+        <v>44505</v>
       </c>
       <c r="B6" s="4">
-        <v>44458</v>
+        <v>44480</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E6" s="2">
-        <v>48000</v>
+        <v>112277</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>44503</v>
-      </c>
-      <c r="B7" s="4">
-        <v>44460</v>
+        <v>44505</v>
+      </c>
+      <c r="B7" s="1">
+        <v>44480</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E7" s="2">
-        <v>350</v>
+        <v>38050</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>44503</v>
-      </c>
-      <c r="B8" s="4">
-        <v>44467</v>
+        <v>44505</v>
+      </c>
+      <c r="B8" s="1">
+        <v>44481</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>3</v>
@@ -695,20 +695,112 @@
         <v>4</v>
       </c>
       <c r="E8" s="2">
-        <v>120194</v>
+        <v>117352</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="4"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="2"/>
+      <c r="A9" s="1">
+        <v>44505</v>
+      </c>
+      <c r="B9" s="1">
+        <v>44481</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="2">
+        <v>37772.5</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="4"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="2"/>
+      <c r="A10" s="1">
+        <v>44505</v>
+      </c>
+      <c r="B10" s="1">
+        <v>44482</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="2">
+        <v>154000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>44505</v>
+      </c>
+      <c r="B11" s="1">
+        <v>44482</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="2">
+        <v>103300</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>44505</v>
+      </c>
+      <c r="B12" s="1">
+        <v>44482</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="2">
+        <v>24960</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+    </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+    </row>
+    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+    </row>
+    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+    </row>
+    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+    </row>
+    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -728,19 +820,19 @@
           <x14:formula1>
             <xm:f>Hoja2!$E$2:$E$3</xm:f>
           </x14:formula1>
-          <xm:sqref>F5:F93</xm:sqref>
+          <xm:sqref>F5:F89</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{326FB17C-4471-4A51-978C-447908CB6C17}">
           <x14:formula1>
             <xm:f>Hoja2!$A$2:$A$5</xm:f>
           </x14:formula1>
-          <xm:sqref>C5:C93</xm:sqref>
+          <xm:sqref>C5:C101</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{CF3B5125-4EE4-4C81-BD02-CC2B34D9319E}">
           <x14:formula1>
             <xm:f>Hoja2!$C$2:$C$9</xm:f>
           </x14:formula1>
-          <xm:sqref>D5:D93</xm:sqref>
+          <xm:sqref>D5:D89</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -753,7 +845,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="C2" sqref="C2:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Depositos Central.xlsx
+++ b/Depositos Central.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ELJAIDROSO\Documents\GitHub\Cortes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BB06C26-599D-4677-98D9-9726974845F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7486909-31B3-4E02-B04F-49630CB58C01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{279AB1D8-6782-4269-A7D5-ED069A05768E}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="22">
   <si>
     <t>Corte</t>
   </si>
@@ -577,10 +577,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89709E19-31F0-40CB-B3AC-1CBE0EF57674}">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:E12"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -632,36 +632,36 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>44474</v>
+        <v>44505</v>
       </c>
       <c r="B5" s="4">
-        <v>44458</v>
+        <v>44480</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E5" s="2">
-        <v>48000</v>
+        <v>112277</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>44505</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="1">
         <v>44480</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E6" s="2">
-        <v>112277</v>
+        <v>38050</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -669,16 +669,16 @@
         <v>44505</v>
       </c>
       <c r="B7" s="1">
-        <v>44480</v>
+        <v>44481</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E7" s="2">
-        <v>38050</v>
+        <v>117352</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -692,10 +692,10 @@
         <v>3</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E8" s="2">
-        <v>117352</v>
+        <v>37772.5</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -703,7 +703,7 @@
         <v>44505</v>
       </c>
       <c r="B9" s="1">
-        <v>44481</v>
+        <v>44482</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>3</v>
@@ -712,7 +712,7 @@
         <v>10</v>
       </c>
       <c r="E9" s="2">
-        <v>37772.5</v>
+        <v>154000</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -726,10 +726,10 @@
         <v>3</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E10" s="2">
-        <v>154000</v>
+        <v>103300</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -746,25 +746,12 @@
         <v>16</v>
       </c>
       <c r="E11" s="2">
-        <v>103300</v>
+        <v>24960</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>44505</v>
-      </c>
-      <c r="B12" s="1">
-        <v>44482</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E12" s="2">
-        <v>24960</v>
-      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C13" s="3"/>
@@ -797,10 +784,6 @@
     <row r="20" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
-    </row>
-    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -820,19 +803,19 @@
           <x14:formula1>
             <xm:f>Hoja2!$E$2:$E$3</xm:f>
           </x14:formula1>
-          <xm:sqref>F5:F89</xm:sqref>
+          <xm:sqref>F5:F88</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{326FB17C-4471-4A51-978C-447908CB6C17}">
           <x14:formula1>
             <xm:f>Hoja2!$A$2:$A$5</xm:f>
           </x14:formula1>
-          <xm:sqref>C5:C101</xm:sqref>
+          <xm:sqref>C5:C100</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{CF3B5125-4EE4-4C81-BD02-CC2B34D9319E}">
           <x14:formula1>
             <xm:f>Hoja2!$C$2:$C$9</xm:f>
           </x14:formula1>
-          <xm:sqref>D5:D89</xm:sqref>
+          <xm:sqref>D5:D88</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/Depositos Central.xlsx
+++ b/Depositos Central.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ELJAIDROSO\Documents\GitHub\Cortes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7486909-31B3-4E02-B04F-49630CB58C01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9E5DD11-041A-4264-B4B6-941647A51440}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{279AB1D8-6782-4269-A7D5-ED069A05768E}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Corte</t>
   </si>
@@ -105,18 +105,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -227,44 +219,38 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Moneda" xfId="1" builtinId="4"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -577,10 +563,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89709E19-31F0-40CB-B3AC-1CBE0EF57674}">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -591,199 +577,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="11"/>
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="9"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>44505</v>
-      </c>
-      <c r="B5" s="4">
-        <v>44480</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="2">
-        <v>112277</v>
-      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>44505</v>
-      </c>
-      <c r="B6" s="1">
-        <v>44480</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="2">
-        <v>38050</v>
-      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>44505</v>
-      </c>
-      <c r="B7" s="1">
-        <v>44481</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E7" s="2">
-        <v>117352</v>
-      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>44505</v>
-      </c>
-      <c r="B8" s="1">
-        <v>44481</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="2">
-        <v>37772.5</v>
-      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>44505</v>
-      </c>
-      <c r="B9" s="1">
-        <v>44482</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="2">
-        <v>154000</v>
-      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>44505</v>
-      </c>
-      <c r="B10" s="1">
-        <v>44482</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="2">
-        <v>103300</v>
-      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>44505</v>
-      </c>
-      <c r="B11" s="1">
-        <v>44482</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" s="2">
-        <v>24960</v>
-      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-    </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-    </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-    </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-    </row>
-    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -803,19 +670,19 @@
           <x14:formula1>
             <xm:f>Hoja2!$E$2:$E$3</xm:f>
           </x14:formula1>
-          <xm:sqref>F5:F88</xm:sqref>
+          <xm:sqref>F5:F81</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{326FB17C-4471-4A51-978C-447908CB6C17}">
           <x14:formula1>
             <xm:f>Hoja2!$A$2:$A$5</xm:f>
           </x14:formula1>
-          <xm:sqref>C5:C100</xm:sqref>
+          <xm:sqref>C5:C93</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{CF3B5125-4EE4-4C81-BD02-CC2B34D9319E}">
           <x14:formula1>
             <xm:f>Hoja2!$C$2:$C$9</xm:f>
           </x14:formula1>
-          <xm:sqref>D5:D88</xm:sqref>
+          <xm:sqref>D5:D81</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/Depositos Central.xlsx
+++ b/Depositos Central.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ELJAIDROSO\Documents\GitHub\Cortes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9E5DD11-041A-4264-B4B6-941647A51440}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C91A3BCC-F670-4C8B-9FFD-6C3DE9523509}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{279AB1D8-6782-4269-A7D5-ED069A05768E}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>Corte</t>
   </si>
@@ -105,10 +105,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
+    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -127,6 +128,13 @@
     <font>
       <b/>
       <sz val="24"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -219,10 +227,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -243,14 +252,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Moneda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -566,14 +577,14 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18" customWidth="1"/>
+    <col min="5" max="5" width="18" style="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -617,8 +628,21 @@
       <c r="E4" s="9"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
+      <c r="A5" s="1">
+        <v>44526</v>
+      </c>
+      <c r="B5" s="1">
+        <v>44489</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="10">
+        <v>35800</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C6" s="2"/>

--- a/Depositos Central.xlsx
+++ b/Depositos Central.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ELJAIDROSO\Documents\GitHub\Cortes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C91A3BCC-F670-4C8B-9FFD-6C3DE9523509}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FD87CD1-880C-4FB5-B2FC-809C340E32F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{279AB1D8-6782-4269-A7D5-ED069A05768E}"/>
   </bookViews>
@@ -237,6 +237,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -258,7 +259,6 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -584,52 +584,52 @@
   <cols>
     <col min="1" max="1" width="32.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18" style="10" customWidth="1"/>
+    <col min="5" max="5" width="18" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="9"/>
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="10"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>44526</v>
+        <v>44495</v>
       </c>
       <c r="B5" s="1">
         <v>44489</v>
@@ -640,7 +640,7 @@
       <c r="D5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="3">
         <v>35800</v>
       </c>
     </row>

--- a/Depositos Central.xlsx
+++ b/Depositos Central.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ELJAIDROSO\Documents\GitHub\Cortes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FD87CD1-880C-4FB5-B2FC-809C340E32F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F250003C-6844-4407-97CE-B8481ED322B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{279AB1D8-6782-4269-A7D5-ED069A05768E}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Corte</t>
   </si>
@@ -577,7 +577,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A5" sqref="A5:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -628,21 +628,8 @@
       <c r="E4" s="10"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>44495</v>
-      </c>
-      <c r="B5" s="1">
-        <v>44489</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="3">
-        <v>35800</v>
-      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C6" s="2"/>

--- a/Depositos Central.xlsx
+++ b/Depositos Central.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ELJAIDROSO\Documents\GitHub\Cortes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\El Jaidroso\Documents\GitHub\Cortes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F250003C-6844-4407-97CE-B8481ED322B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{279AB1D8-6782-4269-A7D5-ED069A05768E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>Corte</t>
   </si>
@@ -104,7 +103,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
@@ -573,11 +572,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89709E19-31F0-40CB-B3AC-1CBE0EF57674}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:E5"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -628,8 +627,21 @@
       <c r="E4" s="10"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
+      <c r="A5" s="1">
+        <v>44604</v>
+      </c>
+      <c r="B5" s="1">
+        <v>44547</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="3">
+        <v>100000</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C6" s="2"/>
@@ -677,19 +689,19 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C94A8520-5EDD-407D-89D6-DB8CDFAC88A5}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Hoja2!$E$2:$E$3</xm:f>
           </x14:formula1>
           <xm:sqref>F5:F81</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{326FB17C-4471-4A51-978C-447908CB6C17}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Hoja2!$A$2:$A$5</xm:f>
           </x14:formula1>
           <xm:sqref>C5:C93</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{CF3B5125-4EE4-4C81-BD02-CC2B34D9319E}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Hoja2!$C$2:$C$9</xm:f>
           </x14:formula1>
@@ -702,7 +714,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB50B8B0-503D-487A-A3BA-054B1A3407B1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Depositos Central.xlsx
+++ b/Depositos Central.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
   <si>
     <t>Corte</t>
   </si>
@@ -576,7 +576,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="B7" sqref="B7:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -628,10 +628,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>44604</v>
+        <v>44656</v>
       </c>
       <c r="B5" s="1">
-        <v>44547</v>
+        <v>44559</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>3</v>
@@ -640,16 +640,42 @@
         <v>10</v>
       </c>
       <c r="E5" s="3">
-        <v>100000</v>
+        <v>50421</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
+      <c r="A6" s="1">
+        <v>44656</v>
+      </c>
+      <c r="B6" s="1">
+        <v>44564</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="3">
+        <v>111675</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
+      <c r="A7" s="1">
+        <v>44656</v>
+      </c>
+      <c r="B7" s="1">
+        <v>44570</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="3">
+        <v>50000</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C8" s="2"/>

--- a/Depositos Central.xlsx
+++ b/Depositos Central.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="22">
   <si>
     <t>Corte</t>
   </si>
@@ -576,7 +576,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:E7"/>
+      <selection activeCell="A8" sqref="A8:E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -678,16 +678,55 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
+      <c r="A8" s="1">
+        <v>44658</v>
+      </c>
+      <c r="B8" s="1">
+        <v>44592</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="3">
+        <v>163000</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
+      <c r="A9" s="1">
+        <v>44658</v>
+      </c>
+      <c r="B9" s="1">
+        <v>44592</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="3">
+        <v>100000</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
+      <c r="A10" s="1">
+        <v>44658</v>
+      </c>
+      <c r="B10" s="1">
+        <v>44592</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="3">
+        <v>160000</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C11" s="2"/>

--- a/Depositos Central.xlsx
+++ b/Depositos Central.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\El Jaidroso\Documents\GitHub\Cortes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hydra999\Documents\GitHub\Cortes\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1D85893-2064-45CC-95F9-1B11A8FE5569}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -20,19 +21,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="23">
   <si>
     <t>Corte</t>
   </si>
@@ -61,9 +55,6 @@
     <t>Erika</t>
   </si>
   <si>
-    <t>Faltante</t>
-  </si>
-  <si>
     <t>Karina</t>
   </si>
   <si>
@@ -97,13 +88,19 @@
     <t>Maria Luisa</t>
   </si>
   <si>
-    <t>Pendiente</t>
+    <t>Patricia</t>
+  </si>
+  <si>
+    <t>Deposito</t>
+  </si>
+  <si>
+    <t>Transfer</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
@@ -572,11 +569,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:E10"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -586,7 +583,7 @@
     <col min="5" max="5" width="18" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>6</v>
       </c>
@@ -595,14 +592,14 @@
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
@@ -619,124 +616,120 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
       <c r="E4" s="10"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>44656</v>
+        <v>44705</v>
       </c>
       <c r="B5" s="1">
-        <v>44559</v>
+        <v>44642</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E5" s="3">
-        <v>50421</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>20000</v>
+      </c>
+      <c r="F5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>44656</v>
+        <v>44705</v>
       </c>
       <c r="B6" s="1">
-        <v>44564</v>
+        <v>44644</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E6" s="3">
-        <v>111675</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>179197</v>
+      </c>
+      <c r="F6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>44656</v>
+        <v>44705</v>
       </c>
       <c r="B7" s="1">
-        <v>44570</v>
+        <v>44645</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E7" s="3">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>5684</v>
+      </c>
+      <c r="F7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>44658</v>
+        <v>44705</v>
       </c>
       <c r="B8" s="1">
-        <v>44592</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>3</v>
-      </c>
+        <v>44647</v>
+      </c>
+      <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E8" s="3">
-        <v>163000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <v>182323</v>
+      </c>
+      <c r="F8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>44658</v>
-      </c>
-      <c r="B9" s="1">
-        <v>44592</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="3">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+        <v>44705</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>44658</v>
-      </c>
-      <c r="B10" s="1">
-        <v>44592</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="3">
-        <v>160000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <v>44705</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>44705</v>
+      </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>44705</v>
+      </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
     </row>
@@ -754,23 +747,23 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
           <x14:formula1>
             <xm:f>Hoja2!$E$2:$E$3</xm:f>
           </x14:formula1>
           <xm:sqref>F5:F81</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
           <x14:formula1>
             <xm:f>Hoja2!$A$2:$A$5</xm:f>
           </x14:formula1>
           <xm:sqref>C5:C93</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{BEC243CE-71C6-4752-9E89-E5050F938F18}">
           <x14:formula1>
-            <xm:f>Hoja2!$C$2:$C$9</xm:f>
+            <xm:f>Hoja2!$C$2:$C$10</xm:f>
           </x14:formula1>
-          <xm:sqref>D5:D81</xm:sqref>
+          <xm:sqref>D5:D358</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -779,21 +772,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C9"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
         <v>11</v>
-      </c>
-      <c r="C1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -801,7 +794,7 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
         <v>21</v>
@@ -809,18 +802,18 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
@@ -828,29 +821,34 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
         <v>15</v>
-      </c>
-      <c r="C5" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
         <v>20</v>
       </c>
     </row>

--- a/Depositos Central.xlsx
+++ b/Depositos Central.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hydra999\Documents\GitHub\Cortes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1D85893-2064-45CC-95F9-1B11A8FE5569}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CD2D559-AE92-4915-AF47-A5FC40C492C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="23">
   <si>
     <t>Corte</t>
   </si>
@@ -105,7 +105,7 @@
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -136,8 +136,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -147,6 +153,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF5353"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -227,7 +245,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -255,6 +273,9 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -262,6 +283,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF5353"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -570,20 +596,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="11.42578125" style="2"/>
     <col min="5" max="5" width="18" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>6</v>
       </c>
@@ -592,14 +619,14 @@
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
@@ -616,14 +643,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
       <c r="E4" s="10"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>44705</v>
       </c>
@@ -642,8 +669,9 @@
       <c r="F5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5" s="11"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>44705</v>
       </c>
@@ -662,8 +690,9 @@
       <c r="F6" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6" s="11"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>44705</v>
       </c>
@@ -683,14 +712,16 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>44705</v>
       </c>
       <c r="B8" s="1">
         <v>44647</v>
       </c>
-      <c r="C8" s="2"/>
+      <c r="C8" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="D8" s="2" t="s">
         <v>4</v>
       </c>
@@ -700,38 +731,384 @@
       <c r="F8" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8" s="12"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>44705</v>
-      </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>44706</v>
+      </c>
+      <c r="B9" s="1">
+        <v>44671</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="3">
+        <v>59224</v>
+      </c>
+      <c r="F9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="11"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>44705</v>
-      </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>44706</v>
+      </c>
+      <c r="B10" s="1">
+        <v>44672</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="3">
+        <v>166000</v>
+      </c>
+      <c r="F10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" s="11"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>44705</v>
-      </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>44706</v>
+      </c>
+      <c r="B11" s="1">
+        <v>44672</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" s="3">
+        <v>214291</v>
+      </c>
+      <c r="F11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" s="11"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>44705</v>
-      </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
+        <v>44706</v>
+      </c>
+      <c r="B12" s="1">
+        <v>44673</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" s="3">
+        <v>120000</v>
+      </c>
+      <c r="F12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" s="13"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>44706</v>
+      </c>
+      <c r="B13" s="1">
+        <v>44673</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" s="3">
+        <v>63055</v>
+      </c>
+      <c r="F13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" s="11"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>44706</v>
+      </c>
+      <c r="B14" s="1">
+        <v>44673</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="3">
+        <v>70000</v>
+      </c>
+      <c r="F14" t="s">
+        <v>21</v>
+      </c>
+      <c r="G14" s="11"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>44706</v>
+      </c>
+      <c r="B15" s="1">
+        <v>44673</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="3">
+        <v>15765</v>
+      </c>
+      <c r="F15" t="s">
+        <v>21</v>
+      </c>
+      <c r="G15" s="11"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>44706</v>
+      </c>
+      <c r="B16" s="1">
+        <v>44674</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16" s="3">
+        <v>215462</v>
+      </c>
+      <c r="F16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>44706</v>
+      </c>
+      <c r="B17" s="1">
+        <v>44674</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" s="3">
+        <v>30000</v>
+      </c>
+      <c r="F17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>44706</v>
+      </c>
+      <c r="B18" s="1">
+        <v>44674</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="3">
+        <v>74027</v>
+      </c>
+      <c r="F18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>44707</v>
+      </c>
+      <c r="B19" s="1">
+        <v>44675</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E19" s="3">
+        <v>235079</v>
+      </c>
+      <c r="F19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>44707</v>
+      </c>
+      <c r="B20" s="1">
+        <v>44675</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="3">
+        <v>105000</v>
+      </c>
+      <c r="F20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>44707</v>
+      </c>
+      <c r="B21" s="1">
+        <v>44675</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" s="3">
+        <v>120000</v>
+      </c>
+      <c r="F21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>44707</v>
+      </c>
+      <c r="B22" s="1">
+        <v>44675</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" s="3">
+        <v>24800</v>
+      </c>
+      <c r="F22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>44707</v>
+      </c>
+      <c r="B23" s="1">
+        <v>44707</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E23" s="3">
+        <v>70000</v>
+      </c>
+      <c r="F23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>44707</v>
+      </c>
+      <c r="B24" s="1">
+        <v>44687</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" s="3">
+        <v>100000</v>
+      </c>
+      <c r="F24" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>44707</v>
+      </c>
+      <c r="B25" s="1">
+        <v>44688</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" s="3">
+        <v>209000</v>
+      </c>
+      <c r="F25" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>44707</v>
+      </c>
+      <c r="B26" s="1">
+        <v>44689</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" s="3">
+        <v>64000</v>
+      </c>
+      <c r="F26" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>44707</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>44707</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/Depositos Central.xlsx
+++ b/Depositos Central.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hydra999\Documents\GitHub\Cortes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CD2D559-AE92-4915-AF47-A5FC40C492C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
   <si>
     <t>Corte</t>
   </si>
@@ -46,12 +46,6 @@
     <t>Cantidad faltante/ pendiente</t>
   </si>
   <si>
-    <t>Depositos</t>
-  </si>
-  <si>
-    <t>Día de verificacion</t>
-  </si>
-  <si>
     <t>Erika</t>
   </si>
   <si>
@@ -79,28 +73,31 @@
     <t>Lety</t>
   </si>
   <si>
-    <t>Beatriz</t>
-  </si>
-  <si>
     <t>Daniela</t>
   </si>
   <si>
     <t>Maria Luisa</t>
   </si>
   <si>
-    <t>Patricia</t>
-  </si>
-  <si>
     <t>Deposito</t>
   </si>
   <si>
     <t>Transfer</t>
+  </si>
+  <si>
+    <t>Restante</t>
+  </si>
+  <si>
+    <t>Isabel</t>
+  </si>
+  <si>
+    <t>Norma</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
@@ -143,7 +140,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -153,18 +150,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF5353"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -252,6 +237,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -273,9 +261,6 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -595,552 +580,169 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="11.42578125" style="2"/>
-    <col min="5" max="5" width="18" style="3" customWidth="1"/>
+    <col min="1" max="1" width="33.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="11.42578125" style="2"/>
+    <col min="4" max="4" width="18" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="7"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="9"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="13"/>
+      <c r="F4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>44697</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="3">
+        <v>75000</v>
+      </c>
+      <c r="F5" s="4"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>44700</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="3">
+        <v>196613</v>
+      </c>
+      <c r="F6" s="6">
+        <f>D6-195620</f>
+        <v>993</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>44703</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="10"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>44705</v>
-      </c>
-      <c r="B5" s="1">
-        <v>44642</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="D7" s="3">
+        <v>123800</v>
+      </c>
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>44704</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="3">
-        <v>20000</v>
-      </c>
-      <c r="F5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="11"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>44705</v>
-      </c>
-      <c r="B6" s="1">
-        <v>44644</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="3">
-        <v>179197</v>
-      </c>
-      <c r="F6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="11"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>44705</v>
-      </c>
-      <c r="B7" s="1">
-        <v>44645</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="3">
-        <v>5684</v>
-      </c>
-      <c r="F7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>44705</v>
-      </c>
-      <c r="B8" s="1">
-        <v>44647</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E8" s="3">
-        <v>182323</v>
-      </c>
-      <c r="F8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" s="12"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>44706</v>
-      </c>
-      <c r="B9" s="1">
-        <v>44671</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="3">
-        <v>59224</v>
-      </c>
-      <c r="F9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" s="11"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>44706</v>
-      </c>
-      <c r="B10" s="1">
-        <v>44672</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E10" s="3">
-        <v>166000</v>
-      </c>
-      <c r="F10" t="s">
-        <v>21</v>
-      </c>
-      <c r="G10" s="11"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>44706</v>
-      </c>
-      <c r="B11" s="1">
-        <v>44672</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E11" s="3">
-        <v>214291</v>
-      </c>
-      <c r="F11" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11" s="11"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>44706</v>
-      </c>
-      <c r="B12" s="1">
-        <v>44673</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E12" s="3">
-        <v>120000</v>
-      </c>
-      <c r="F12" t="s">
-        <v>21</v>
-      </c>
-      <c r="G12" s="13"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>44706</v>
-      </c>
-      <c r="B13" s="1">
-        <v>44673</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E13" s="3">
-        <v>63055</v>
-      </c>
-      <c r="F13" t="s">
-        <v>21</v>
-      </c>
-      <c r="G13" s="11"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>44706</v>
-      </c>
-      <c r="B14" s="1">
-        <v>44673</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14" s="3">
-        <v>70000</v>
-      </c>
-      <c r="F14" t="s">
-        <v>21</v>
-      </c>
-      <c r="G14" s="11"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>44706</v>
-      </c>
-      <c r="B15" s="1">
-        <v>44673</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E15" s="3">
-        <v>15765</v>
-      </c>
-      <c r="F15" t="s">
-        <v>21</v>
-      </c>
-      <c r="G15" s="11"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>44706</v>
-      </c>
-      <c r="B16" s="1">
-        <v>44674</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E16" s="3">
-        <v>215462</v>
-      </c>
-      <c r="F16" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>44706</v>
-      </c>
-      <c r="B17" s="1">
-        <v>44674</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E17" s="3">
-        <v>30000</v>
-      </c>
-      <c r="F17" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>44706</v>
-      </c>
-      <c r="B18" s="1">
-        <v>44674</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E18" s="3">
-        <v>74027</v>
-      </c>
-      <c r="F18" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>44707</v>
-      </c>
-      <c r="B19" s="1">
-        <v>44675</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E19" s="3">
-        <v>235079</v>
-      </c>
-      <c r="F19" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>44707</v>
-      </c>
-      <c r="B20" s="1">
-        <v>44675</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E20" s="3">
-        <v>105000</v>
-      </c>
-      <c r="F20" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>44707</v>
-      </c>
-      <c r="B21" s="1">
-        <v>44675</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E21" s="3">
-        <v>120000</v>
-      </c>
-      <c r="F21" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>44707</v>
-      </c>
-      <c r="B22" s="1">
-        <v>44675</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E22" s="3">
-        <v>24800</v>
-      </c>
-      <c r="F22" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>44707</v>
-      </c>
-      <c r="B23" s="1">
-        <v>44707</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E23" s="3">
-        <v>70000</v>
-      </c>
-      <c r="F23" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>44707</v>
-      </c>
-      <c r="B24" s="1">
-        <v>44687</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E24" s="3">
-        <v>100000</v>
-      </c>
-      <c r="F24" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <v>44707</v>
-      </c>
-      <c r="B25" s="1">
-        <v>44688</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E25" s="3">
-        <v>209000</v>
-      </c>
-      <c r="F25" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
-        <v>44707</v>
-      </c>
-      <c r="B26" s="1">
-        <v>44689</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E26" s="3">
-        <v>64000</v>
-      </c>
-      <c r="F26" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
-        <v>44707</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
-        <v>44707</v>
-      </c>
+      <c r="D8" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F8" s="5"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F11" s="4"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F13" s="4"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F14" s="4"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F15" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A1:E2"/>
+  <mergeCells count="5">
+    <mergeCell ref="A1:D2"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Hoja2!$E$2:$E$3</xm:f>
           </x14:formula1>
-          <xm:sqref>F5:F81</xm:sqref>
+          <xm:sqref>E5:E81</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Hoja2!$A$2:$A$5</xm:f>
           </x14:formula1>
-          <xm:sqref>C5:C93</xm:sqref>
+          <xm:sqref>B5:B93</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{BEC243CE-71C6-4752-9E89-E5050F938F18}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Hoja2!$C$2:$C$10</xm:f>
           </x14:formula1>
-          <xm:sqref>D5:D358</xm:sqref>
+          <xm:sqref>C5:C358</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1149,21 +751,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -1171,62 +773,62 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
       </c>
       <c r="E3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/Depositos Central.xlsx
+++ b/Depositos Central.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hydra999\Documents\GitHub\Cortes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC MASTER RACE\Documents\GitHub\Cortes\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="23">
   <si>
     <t>Corte</t>
   </si>
@@ -88,10 +87,13 @@
     <t>Restante</t>
   </si>
   <si>
-    <t>Isabel</t>
-  </si>
-  <si>
     <t>Norma</t>
+  </si>
+  <si>
+    <t>Ester</t>
+  </si>
+  <si>
+    <t>Beatriz</t>
   </si>
 </sst>
 </file>
@@ -584,7 +586,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="A9" sqref="A9:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -631,7 +633,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>44697</v>
+        <v>44845</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>3</v>
@@ -640,46 +642,52 @@
         <v>4</v>
       </c>
       <c r="D5" s="3">
-        <v>75000</v>
+        <v>146000</v>
+      </c>
+      <c r="E5" t="s">
+        <v>17</v>
       </c>
       <c r="F5" s="4"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>44700</v>
+        <v>44870</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D6" s="3">
-        <v>196613</v>
-      </c>
-      <c r="F6" s="6">
-        <f>D6-195620</f>
-        <v>993</v>
-      </c>
+        <v>3420</v>
+      </c>
+      <c r="E6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="6"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>44703</v>
+        <v>44875</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D7" s="3">
-        <v>123800</v>
+        <v>120000</v>
+      </c>
+      <c r="E7" t="s">
+        <v>17</v>
       </c>
       <c r="F7" s="4"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>44704</v>
+        <v>44879</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>3</v>
@@ -688,11 +696,29 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>1100</v>
+        <v>150000</v>
+      </c>
+      <c r="E8" t="s">
+        <v>17</v>
       </c>
       <c r="F8" s="5"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>44904</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="3">
+        <v>70000</v>
+      </c>
+      <c r="E9" t="s">
+        <v>17</v>
+      </c>
       <c r="F9" s="4"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -725,7 +751,7 @@
   <pageSetup orientation="landscape" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Hoja2!$E$2:$E$3</xm:f>
@@ -742,7 +768,13 @@
           <x14:formula1>
             <xm:f>Hoja2!$C$2:$C$10</xm:f>
           </x14:formula1>
-          <xm:sqref>C5:C358</xm:sqref>
+          <xm:sqref>C5:C8 C10:C358</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Hoja2!$C$2:$C$39</xm:f>
+          </x14:formula1>
+          <xm:sqref>C9</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -752,7 +784,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
@@ -813,7 +845,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -828,7 +860,12 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
-        <v>21</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/Depositos Central.xlsx
+++ b/Depositos Central.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
   <si>
     <t>Corte</t>
   </si>
@@ -87,13 +87,13 @@
     <t>Restante</t>
   </si>
   <si>
-    <t>Norma</t>
-  </si>
-  <si>
     <t>Ester</t>
   </si>
   <si>
     <t>Beatriz</t>
+  </si>
+  <si>
+    <t>Norma Josefina</t>
   </si>
 </sst>
 </file>
@@ -586,13 +586,14 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:E9"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="33.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="11.42578125" style="2"/>
+    <col min="2" max="2" width="11.42578125" style="2"/>
+    <col min="3" max="3" width="14.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18" style="3" customWidth="1"/>
   </cols>
   <sheetData>
@@ -633,92 +634,41 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>44845</v>
+        <v>45087</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="D5" s="3">
-        <v>146000</v>
-      </c>
-      <c r="E5" t="s">
-        <v>17</v>
+        <v>42656</v>
       </c>
       <c r="F5" s="4"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>44870</v>
+        <v>45087</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D6" s="3">
-        <v>3420</v>
-      </c>
-      <c r="E6" t="s">
-        <v>17</v>
+        <v>25823</v>
       </c>
       <c r="F6" s="6"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>44875</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="3">
-        <v>120000</v>
-      </c>
-      <c r="E7" t="s">
-        <v>17</v>
-      </c>
       <c r="F7" s="4"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>44879</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="3">
-        <v>150000</v>
-      </c>
-      <c r="E8" t="s">
-        <v>17</v>
-      </c>
       <c r="F8" s="5"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>44904</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="3">
-        <v>70000</v>
-      </c>
-      <c r="E9" t="s">
-        <v>17</v>
-      </c>
       <c r="F9" s="4"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -787,7 +737,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -845,7 +795,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -860,12 +810,12 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
